--- a/src/main/java/com/roc/SuperMaster/mysql/SuperSchool.xlsx
+++ b/src/main/java/com/roc/SuperMaster/mysql/SuperSchool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13444\Desktop\SuperMaster\src\main\java\com\roc\SuperMaster\mysql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A011CC28-BB0F-4343-B22E-EA9FA2FB0B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01989F94-0570-4143-AC6E-7704B27304DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="20625" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="20625" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SuperSchool项目简介" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,15 @@
     <sheet name="业务框架（功能思维导图）" sheetId="2" r:id="rId3"/>
     <sheet name="功能流程图" sheetId="3" r:id="rId4"/>
     <sheet name="用例图" sheetId="4" r:id="rId5"/>
-    <sheet name="表-数据结构" sheetId="5" r:id="rId6"/>
+    <sheet name="表-数据结构-学生" sheetId="5" r:id="rId6"/>
+    <sheet name="表-数据结构-监护人" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="86">
   <si>
     <t>SuperSchool项目</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -44,6 +45,266 @@
   </si>
   <si>
     <t>控制男女比例</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生姓名</t>
+  </si>
+  <si>
+    <t>学生学号</t>
+  </si>
+  <si>
+    <t>学生身份证</t>
+  </si>
+  <si>
+    <t>学生性别</t>
+  </si>
+  <si>
+    <t>学生年龄</t>
+  </si>
+  <si>
+    <t>学生年级ID</t>
+  </si>
+  <si>
+    <t>学生年级name</t>
+  </si>
+  <si>
+    <t>学生班级ID</t>
+  </si>
+  <si>
+    <t>学生班级name</t>
+  </si>
+  <si>
+    <t>学生电子邮件</t>
+  </si>
+  <si>
+    <t>学生状态</t>
+  </si>
+  <si>
+    <t>学生生日</t>
+  </si>
+  <si>
+    <t>学生家庭住址</t>
+  </si>
+  <si>
+    <t>学生电话</t>
+  </si>
+  <si>
+    <t>学生监护人ID</t>
+  </si>
+  <si>
+    <t>学生监护人姓名</t>
+  </si>
+  <si>
+    <t>学生监护人电话</t>
+  </si>
+  <si>
+    <t>学生监护人关系</t>
+  </si>
+  <si>
+    <t>学生入学时间</t>
+  </si>
+  <si>
+    <t>学生毕业时间</t>
+  </si>
+  <si>
+    <t>学生户籍地</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>创建人</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
+    <t>更新人</t>
+  </si>
+  <si>
+    <t>更新时间</t>
+  </si>
+  <si>
+    <t>删除人</t>
+  </si>
+  <si>
+    <t>删除时间</t>
+  </si>
+  <si>
+    <t>删除状态</t>
+  </si>
+  <si>
+    <t>student_id</t>
+  </si>
+  <si>
+    <t>varchar(250)</t>
+  </si>
+  <si>
+    <t>student_name</t>
+  </si>
+  <si>
+    <t>student_number</t>
+  </si>
+  <si>
+    <t>student_card_id</t>
+  </si>
+  <si>
+    <t>student_sex</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>student_age</t>
+  </si>
+  <si>
+    <t>int(25)</t>
+  </si>
+  <si>
+    <t>student_grade</t>
+  </si>
+  <si>
+    <t>student_grade_name</t>
+  </si>
+  <si>
+    <t>student_class</t>
+  </si>
+  <si>
+    <t>student_class_name</t>
+  </si>
+  <si>
+    <t>student_email</t>
+  </si>
+  <si>
+    <t>student_status</t>
+  </si>
+  <si>
+    <t>student_birthday</t>
+  </si>
+  <si>
+    <t>student_address</t>
+  </si>
+  <si>
+    <t>student_guardian_id</t>
+  </si>
+  <si>
+    <t>student_guardian_name</t>
+  </si>
+  <si>
+    <t>student_guardian_phone</t>
+  </si>
+  <si>
+    <t>student_guardian_relationship</t>
+  </si>
+  <si>
+    <t>student_admission_time</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>student_leave_time</t>
+  </si>
+  <si>
+    <t>student_Registered_residence</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>create_by</t>
+  </si>
+  <si>
+    <t>create_time</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>update_by</t>
+  </si>
+  <si>
+    <t>update_time</t>
+  </si>
+  <si>
+    <t>delete_by</t>
+  </si>
+  <si>
+    <t>delete_time</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>student_phone</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java数据类型</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySQL数据类型</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DateTime</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyInt</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段Name</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete_status</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -51,7 +312,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,8 +494,16 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -417,6 +686,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,11 +955,44 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1051,7 +1359,7 @@
   <dimension ref="I1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AB21" sqref="AB21"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -1062,140 +1370,140 @@
     <row r="1" spans="9:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="9:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
     </row>
     <row r="13" spans="9:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
     </row>
     <row r="14" spans="9:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
     </row>
     <row r="15" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
     </row>
     <row r="16" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
     </row>
     <row r="17" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
     </row>
     <row r="18" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
     </row>
     <row r="19" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
     </row>
     <row r="20" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
     </row>
     <row r="21" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
     </row>
     <row r="22" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
     </row>
     <row r="23" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1213,7 +1521,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P31" sqref="P31:T31"/>
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1227,7 +1535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{100EEDE4-ECC6-461B-9304-193D2843C0B1}">
   <dimension ref="H35:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
@@ -1283,6 +1591,683 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B2364C1-0979-43D2-8689-21E1AF736461}">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="2" width="28.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="10">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="10">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="10">
+        <v>26</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="10">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="10">
+        <v>28</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="12"/>
+    </row>
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="10">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" s="12"/>
+    </row>
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="10">
+        <v>30</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3355BC0A-4F1A-43C6-B5C0-561760E72F3B}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
